--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hughesportal-my.sharepoint.com/personal/e02469_hsc_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rush 14\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{704CDCC9-B5DA-4397-A3DE-64C6B91F91C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F72D9527-C9D4-439F-B731-60FD24A4245B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF5F4A-A1C2-4F8A-BCC4-332DEBAF5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{85D0706A-A231-4436-8628-CE3A20A9657B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85D0706A-A231-4436-8628-CE3A20A9657B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>HI</t>
   </si>
@@ -55,6 +46,9 @@
   </si>
   <si>
     <t>TA</t>
+  </si>
+  <si>
+    <t>EN</t>
   </si>
 </sst>
 </file>
@@ -406,46 +400,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E77C2AF-5A5B-4934-90A5-0D927E8A44DB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
